--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dcn-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dcn-Met.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.335690666666667</v>
+        <v>8.223245666666665</v>
       </c>
       <c r="H2">
-        <v>7.007072</v>
+        <v>24.669737</v>
       </c>
       <c r="I2">
-        <v>0.0008591106367287776</v>
+        <v>0.003010099901484358</v>
       </c>
       <c r="J2">
-        <v>0.0008591106367287777</v>
+        <v>0.003010099901484359</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.655851666666667</v>
+        <v>2.839339666666666</v>
       </c>
       <c r="N2">
-        <v>4.967555</v>
+        <v>8.518018999999999</v>
       </c>
       <c r="O2">
-        <v>0.03628213169899143</v>
+        <v>0.07557152725297667</v>
       </c>
       <c r="P2">
-        <v>0.03628213169899143</v>
+        <v>0.07557152725297665</v>
       </c>
       <c r="Q2">
-        <v>3.867557283217778</v>
+        <v>23.34858761011144</v>
       </c>
       <c r="R2">
-        <v>34.80801554896</v>
+        <v>210.1372884910029</v>
       </c>
       <c r="S2">
-        <v>3.11703652657979E-05</v>
+        <v>0.0002274778467392075</v>
       </c>
       <c r="T2">
-        <v>3.11703652657979E-05</v>
+        <v>0.0002274778467392075</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.335690666666667</v>
+        <v>8.223245666666665</v>
       </c>
       <c r="H3">
-        <v>7.007072</v>
+        <v>24.669737</v>
       </c>
       <c r="I3">
-        <v>0.0008591106367287776</v>
+        <v>0.003010099901484358</v>
       </c>
       <c r="J3">
-        <v>0.0008591106367287777</v>
+        <v>0.003010099901484359</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.249148</v>
       </c>
       <c r="O3">
-        <v>0.03103501568568562</v>
+        <v>0.03769827278900544</v>
       </c>
       <c r="P3">
-        <v>0.03103501568568562</v>
+        <v>0.03769827278900544</v>
       </c>
       <c r="Q3">
-        <v>3.308231774961778</v>
+        <v>11.64726262600844</v>
       </c>
       <c r="R3">
-        <v>29.774085974656</v>
+        <v>104.825363634076</v>
       </c>
       <c r="S3">
-        <v>2.666251208661697E-05</v>
+        <v>0.0001134755672083157</v>
       </c>
       <c r="T3">
-        <v>2.666251208661698E-05</v>
+        <v>0.0001134755672083157</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.335690666666667</v>
+        <v>8.223245666666665</v>
       </c>
       <c r="H4">
-        <v>7.007072</v>
+        <v>24.669737</v>
       </c>
       <c r="I4">
-        <v>0.0008591106367287776</v>
+        <v>0.003010099901484358</v>
       </c>
       <c r="J4">
-        <v>0.0008591106367287777</v>
+        <v>0.003010099901484359</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.180664</v>
+        <v>32.04516333333333</v>
       </c>
       <c r="N4">
-        <v>111.541992</v>
+        <v>96.13549</v>
       </c>
       <c r="O4">
-        <v>0.8146827249445348</v>
+        <v>0.852910260297995</v>
       </c>
       <c r="P4">
-        <v>0.8146827249445348</v>
+        <v>0.8529102602979949</v>
       </c>
       <c r="Q4">
-        <v>86.84252988526934</v>
+        <v>263.5152505184589</v>
       </c>
       <c r="R4">
-        <v>781.5827689674239</v>
+        <v>2371.63725466613</v>
       </c>
       <c r="S4">
-        <v>0.0006999025945590349</v>
+        <v>0.002567345090497993</v>
       </c>
       <c r="T4">
-        <v>0.0006999025945590349</v>
+        <v>0.002567345090497993</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.335690666666667</v>
+        <v>8.223245666666665</v>
       </c>
       <c r="H5">
-        <v>7.007072</v>
+        <v>24.669737</v>
       </c>
       <c r="I5">
-        <v>0.0008591106367287776</v>
+        <v>0.003010099901484358</v>
       </c>
       <c r="J5">
-        <v>0.0008591106367287777</v>
+        <v>0.003010099901484359</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.385314999999999</v>
+        <v>1.270667666666667</v>
       </c>
       <c r="N5">
-        <v>16.155945</v>
+        <v>3.812003</v>
       </c>
       <c r="O5">
-        <v>0.1180001276707882</v>
+        <v>0.03381993966002293</v>
       </c>
       <c r="P5">
-        <v>0.1180001276707882</v>
+        <v>0.03381993966002293</v>
       </c>
       <c r="Q5">
-        <v>12.57842998256</v>
+        <v>10.44901238369011</v>
       </c>
       <c r="R5">
-        <v>113.20586984304</v>
+        <v>94.04111145321099</v>
       </c>
       <c r="S5">
-        <v>0.0001013751648173279</v>
+        <v>0.0001018013970388419</v>
       </c>
       <c r="T5">
-        <v>0.0001013751648173279</v>
+        <v>0.000101801397038842</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>8120.804687</v>
       </c>
       <c r="I6">
-        <v>0.9956611956318718</v>
+        <v>0.9908672065823976</v>
       </c>
       <c r="J6">
-        <v>0.9956611956318719</v>
+        <v>0.9908672065823977</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.655851666666667</v>
+        <v>2.839339666666666</v>
       </c>
       <c r="N6">
-        <v>4.967555</v>
+        <v>8.518018999999999</v>
       </c>
       <c r="O6">
-        <v>0.03628213169899143</v>
+        <v>0.07557152725297667</v>
       </c>
       <c r="P6">
-        <v>0.03628213169899143</v>
+        <v>0.07557152725297665</v>
       </c>
       <c r="Q6">
-        <v>4482.28265854781</v>
+        <v>7685.907624350561</v>
       </c>
       <c r="R6">
-        <v>40340.54392693028</v>
+        <v>69173.16861915504</v>
       </c>
       <c r="S6">
-        <v>0.03612471062749084</v>
+        <v>0.07488134810632252</v>
       </c>
       <c r="T6">
-        <v>0.03612471062749085</v>
+        <v>0.07488134810632252</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>8120.804687</v>
       </c>
       <c r="I7">
-        <v>0.9956611956318718</v>
+        <v>0.9908672065823976</v>
       </c>
       <c r="J7">
-        <v>0.9956611956318719</v>
+        <v>0.9908672065823977</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>4.249148</v>
       </c>
       <c r="O7">
-        <v>0.03103501568568562</v>
+        <v>0.03769827278900544</v>
       </c>
       <c r="P7">
-        <v>0.03103501568568562</v>
+        <v>0.03769827278900544</v>
       </c>
       <c r="Q7">
         <v>3834.055666017408</v>
@@ -883,10 +883,10 @@
         <v>34506.50099415668</v>
       </c>
       <c r="S7">
-        <v>0.03090036082406364</v>
+        <v>0.03735398225142303</v>
       </c>
       <c r="T7">
-        <v>0.03090036082406365</v>
+        <v>0.03735398225142303</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>8120.804687</v>
       </c>
       <c r="I8">
-        <v>0.9956611956318718</v>
+        <v>0.9908672065823976</v>
       </c>
       <c r="J8">
-        <v>0.9956611956318719</v>
+        <v>0.9908672065823977</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>37.180664</v>
+        <v>32.04516333333333</v>
       </c>
       <c r="N8">
-        <v>111.541992</v>
+        <v>96.13549</v>
       </c>
       <c r="O8">
-        <v>0.8146827249445348</v>
+        <v>0.852910260297995</v>
       </c>
       <c r="P8">
-        <v>0.8146827249445348</v>
+        <v>0.8529102602979949</v>
       </c>
       <c r="Q8">
-        <v>100645.6368256574</v>
+        <v>86744.17086433797</v>
       </c>
       <c r="R8">
-        <v>905810.7314309165</v>
+        <v>780697.5377790417</v>
       </c>
       <c r="S8">
-        <v>0.8111479759789069</v>
+        <v>0.8451208070869399</v>
       </c>
       <c r="T8">
-        <v>0.811147975978907</v>
+        <v>0.8451208070869399</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>8120.804687</v>
       </c>
       <c r="I9">
-        <v>0.9956611956318718</v>
+        <v>0.9908672065823976</v>
       </c>
       <c r="J9">
-        <v>0.9956611956318719</v>
+        <v>0.9908672065823977</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.385314999999999</v>
+        <v>1.270667666666667</v>
       </c>
       <c r="N9">
-        <v>16.155945</v>
+        <v>3.812003</v>
       </c>
       <c r="O9">
-        <v>0.1180001276707882</v>
+        <v>0.03381993966002293</v>
       </c>
       <c r="P9">
-        <v>0.1180001276707882</v>
+        <v>0.03381993966002293</v>
       </c>
       <c r="Q9">
-        <v>14577.69709765713</v>
+        <v>3439.61464769534</v>
       </c>
       <c r="R9">
-        <v>131199.2738789142</v>
+        <v>30956.53182925806</v>
       </c>
       <c r="S9">
-        <v>0.1174881482014105</v>
+        <v>0.03351106913771216</v>
       </c>
       <c r="T9">
-        <v>0.1174881482014105</v>
+        <v>0.03351106913771216</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.374824666666667</v>
+        <v>14.14340733333333</v>
       </c>
       <c r="H10">
-        <v>25.124474</v>
+        <v>42.430222</v>
       </c>
       <c r="I10">
-        <v>0.003080416878207562</v>
+        <v>0.005177161275053701</v>
       </c>
       <c r="J10">
-        <v>0.003080416878207562</v>
+        <v>0.005177161275053702</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.655851666666667</v>
+        <v>2.839339666666666</v>
       </c>
       <c r="N10">
-        <v>4.967555</v>
+        <v>8.518018999999999</v>
       </c>
       <c r="O10">
-        <v>0.03628213169899143</v>
+        <v>0.07557152725297667</v>
       </c>
       <c r="P10">
-        <v>0.03628213169899143</v>
+        <v>0.07557152725297665</v>
       </c>
       <c r="Q10">
-        <v>13.86746738234111</v>
+        <v>40.15793746335755</v>
       </c>
       <c r="R10">
-        <v>124.80720644107</v>
+        <v>361.421437170218</v>
       </c>
       <c r="S10">
-        <v>0.0001117640908629228</v>
+        <v>0.0003912459843907762</v>
       </c>
       <c r="T10">
-        <v>0.0001117640908629228</v>
+        <v>0.0003912459843907762</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.374824666666667</v>
+        <v>14.14340733333333</v>
       </c>
       <c r="H11">
-        <v>25.124474</v>
+        <v>42.430222</v>
       </c>
       <c r="I11">
-        <v>0.003080416878207562</v>
+        <v>0.005177161275053701</v>
       </c>
       <c r="J11">
-        <v>0.003080416878207562</v>
+        <v>0.005177161275053702</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>4.249148</v>
       </c>
       <c r="O11">
-        <v>0.03103501568568562</v>
+        <v>0.03769827278900544</v>
       </c>
       <c r="P11">
-        <v>0.03103501568568562</v>
+        <v>0.03769827278900544</v>
       </c>
       <c r="Q11">
-        <v>11.86195649423911</v>
+        <v>20.03247699453955</v>
       </c>
       <c r="R11">
-        <v>106.757608448152</v>
+        <v>180.292292950856</v>
       </c>
       <c r="S11">
-        <v>9.560078613362241E-05</v>
+        <v>0.0001951700380196496</v>
       </c>
       <c r="T11">
-        <v>9.560078613362243E-05</v>
+        <v>0.0001951700380196496</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.374824666666667</v>
+        <v>14.14340733333333</v>
       </c>
       <c r="H12">
-        <v>25.124474</v>
+        <v>42.430222</v>
       </c>
       <c r="I12">
-        <v>0.003080416878207562</v>
+        <v>0.005177161275053701</v>
       </c>
       <c r="J12">
-        <v>0.003080416878207562</v>
+        <v>0.005177161275053702</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.180664</v>
+        <v>32.04516333333333</v>
       </c>
       <c r="N12">
-        <v>111.541992</v>
+        <v>96.13549</v>
       </c>
       <c r="O12">
-        <v>0.8146827249445348</v>
+        <v>0.852910260297995</v>
       </c>
       <c r="P12">
-        <v>0.8146827249445348</v>
+        <v>0.8529102602979949</v>
       </c>
       <c r="Q12">
-        <v>311.3815419902454</v>
+        <v>453.2277980865312</v>
       </c>
       <c r="R12">
-        <v>2802.433877912208</v>
+        <v>4079.05018277878</v>
       </c>
       <c r="S12">
-        <v>0.002509562416303274</v>
+        <v>0.004415653970710752</v>
       </c>
       <c r="T12">
-        <v>0.002509562416303274</v>
+        <v>0.004415653970710752</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.374824666666667</v>
+        <v>14.14340733333333</v>
       </c>
       <c r="H13">
-        <v>25.124474</v>
+        <v>42.430222</v>
       </c>
       <c r="I13">
-        <v>0.003080416878207562</v>
+        <v>0.005177161275053701</v>
       </c>
       <c r="J13">
-        <v>0.003080416878207562</v>
+        <v>0.005177161275053702</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.385314999999999</v>
+        <v>1.270667666666667</v>
       </c>
       <c r="N13">
-        <v>16.155945</v>
+        <v>3.812003</v>
       </c>
       <c r="O13">
-        <v>0.1180001276707882</v>
+        <v>0.03381993966002293</v>
       </c>
       <c r="P13">
-        <v>0.1180001276707882</v>
+        <v>0.03381993966002293</v>
       </c>
       <c r="Q13">
-        <v>45.10106889977</v>
+        <v>17.97157039496289</v>
       </c>
       <c r="R13">
-        <v>405.90962009793</v>
+        <v>161.744133554666</v>
       </c>
       <c r="S13">
-        <v>0.000363489584907743</v>
+        <v>0.0001750912819325235</v>
       </c>
       <c r="T13">
-        <v>0.0003634895849077431</v>
+        <v>0.0001750912819325235</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.085526333333333</v>
+        <v>2.583085</v>
       </c>
       <c r="H14">
-        <v>3.256579</v>
+        <v>7.749255</v>
       </c>
       <c r="I14">
-        <v>0.0003992768531916849</v>
+        <v>0.0009455322410643118</v>
       </c>
       <c r="J14">
-        <v>0.0003992768531916849</v>
+        <v>0.0009455322410643119</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.655851666666667</v>
+        <v>2.839339666666666</v>
       </c>
       <c r="N14">
-        <v>4.967555</v>
+        <v>8.518018999999999</v>
       </c>
       <c r="O14">
-        <v>0.03628213169899143</v>
+        <v>0.07557152725297667</v>
       </c>
       <c r="P14">
-        <v>0.03628213169899143</v>
+        <v>0.07557152725297665</v>
       </c>
       <c r="Q14">
-        <v>1.797470588260556</v>
+        <v>7.334255702871666</v>
       </c>
       <c r="R14">
-        <v>16.177235294345</v>
+        <v>66.008301325845</v>
       </c>
       <c r="S14">
-        <v>1.448661537185958E-05</v>
+        <v>7.145531552415974E-05</v>
       </c>
       <c r="T14">
-        <v>1.448661537185958E-05</v>
+        <v>7.145531552415974E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.085526333333333</v>
+        <v>2.583085</v>
       </c>
       <c r="H15">
-        <v>3.256579</v>
+        <v>7.749255</v>
       </c>
       <c r="I15">
-        <v>0.0003992768531916849</v>
+        <v>0.0009455322410643118</v>
       </c>
       <c r="J15">
-        <v>0.0003992768531916849</v>
+        <v>0.0009455322410643119</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>4.249148</v>
       </c>
       <c r="O15">
-        <v>0.03103501568568562</v>
+        <v>0.03769827278900544</v>
       </c>
       <c r="P15">
-        <v>0.03103501568568562</v>
+        <v>0.03769827278900544</v>
       </c>
       <c r="Q15">
-        <v>1.537520682743555</v>
+        <v>3.658636820526667</v>
       </c>
       <c r="R15">
-        <v>13.837686144692</v>
+        <v>32.92773138474</v>
       </c>
       <c r="S15">
-        <v>1.239156340173514E-05</v>
+        <v>3.564493235444207E-05</v>
       </c>
       <c r="T15">
-        <v>1.239156340173514E-05</v>
+        <v>3.564493235444208E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.085526333333333</v>
+        <v>2.583085</v>
       </c>
       <c r="H16">
-        <v>3.256579</v>
+        <v>7.749255</v>
       </c>
       <c r="I16">
-        <v>0.0003992768531916849</v>
+        <v>0.0009455322410643118</v>
       </c>
       <c r="J16">
-        <v>0.0003992768531916849</v>
+        <v>0.0009455322410643119</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.180664</v>
+        <v>32.04516333333333</v>
       </c>
       <c r="N16">
-        <v>111.541992</v>
+        <v>96.13549</v>
       </c>
       <c r="O16">
-        <v>0.8146827249445348</v>
+        <v>0.852910260297995</v>
       </c>
       <c r="P16">
-        <v>0.8146827249445348</v>
+        <v>0.8529102602979949</v>
       </c>
       <c r="Q16">
-        <v>40.36058986281867</v>
+        <v>82.77538072888333</v>
       </c>
       <c r="R16">
-        <v>363.245308765368</v>
+        <v>744.97842655995</v>
       </c>
       <c r="S16">
-        <v>0.0003252839547654808</v>
+        <v>0.0008064541498463087</v>
       </c>
       <c r="T16">
-        <v>0.0003252839547654809</v>
+        <v>0.0008064541498463087</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.085526333333333</v>
+        <v>2.583085</v>
       </c>
       <c r="H17">
-        <v>3.256579</v>
+        <v>7.749255</v>
       </c>
       <c r="I17">
-        <v>0.0003992768531916849</v>
+        <v>0.0009455322410643118</v>
       </c>
       <c r="J17">
-        <v>0.0003992768531916849</v>
+        <v>0.0009455322410643119</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.385314999999999</v>
+        <v>1.270667666666667</v>
       </c>
       <c r="N17">
-        <v>16.155945</v>
+        <v>3.812003</v>
       </c>
       <c r="O17">
-        <v>0.1180001276707882</v>
+        <v>0.03381993966002293</v>
       </c>
       <c r="P17">
-        <v>0.1180001276707882</v>
+        <v>0.03381993966002293</v>
       </c>
       <c r="Q17">
-        <v>5.845901245795</v>
+        <v>3.282242589751666</v>
       </c>
       <c r="R17">
-        <v>52.613111212155</v>
+        <v>29.540183307765</v>
       </c>
       <c r="S17">
-        <v>4.711471965260936E-05</v>
+        <v>3.197784333940127E-05</v>
       </c>
       <c r="T17">
-        <v>4.711471965260937E-05</v>
+        <v>3.197784333940128E-05</v>
       </c>
     </row>
   </sheetData>
